--- a/ChartsWithImpact/Q7.xlsx
+++ b/ChartsWithImpact/Q7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20175" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -24,39 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Delivery Driver</t>
+    <t>Month</t>
   </si>
   <si>
-    <t>Average Number of Delivery Stops Completed (per shift)</t>
+    <t>Shipping Costs (in $1000s)</t>
   </si>
   <si>
-    <t>Amy Urbaczewski</t>
+    <t>Outbound</t>
   </si>
   <si>
-    <t>Sally Melouk</t>
-  </si>
-  <si>
-    <t>Brenda Barnes</t>
-  </si>
-  <si>
-    <t>Jonathan Payne</t>
-  </si>
-  <si>
-    <t>Bruce Wheeler</t>
-  </si>
-  <si>
-    <t>Cam Madsen</t>
-  </si>
-  <si>
-    <t>Sheila Stevens</t>
-  </si>
-  <si>
-    <t>Grant Inhara</t>
-  </si>
-  <si>
-    <t>Finn Helton</t>
+    <t>Inbound</t>
   </si>
 </sst>
 </file>
@@ -98,7 +77,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -107,19 +86,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,99 +375,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>478</v>
+      </c>
+      <c r="C3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>92.87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B4">
+        <v>524</v>
+      </c>
+      <c r="C4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>110.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B5">
+        <v>628</v>
+      </c>
+      <c r="C5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>114.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B6">
+        <v>787</v>
+      </c>
+      <c r="C6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B7">
+        <v>648</v>
+      </c>
+      <c r="C7">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>148.19999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B8">
+        <v>612</v>
+      </c>
+      <c r="C8">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>87.51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B9">
+        <v>598</v>
+      </c>
+      <c r="C9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>139.82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B10">
+        <v>641</v>
+      </c>
+      <c r="C10">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>154.22999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B11">
+        <v>546</v>
+      </c>
+      <c r="C11">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>109.11</v>
+      <c r="B12">
+        <v>476</v>
+      </c>
+      <c r="C12">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>378</v>
+      </c>
+      <c r="C13">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>512</v>
+      </c>
+      <c r="C14">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>